--- a/xlsx/乌拉圭_intext.xlsx
+++ b/xlsx/乌拉圭_intext.xlsx
@@ -15,2181 +15,2163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
   <si>
     <t>乌拉圭</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>乌拉圭国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>乌拉圭国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>乌拉圭国歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BE%97%E7%BB%B4%E7%9A%84%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>蒙得维的亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>族群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
+  </si>
+  <si>
+    <t>单一制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>乌拉圭总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%93%A6%E9%9B%B7%C2%B7%E5%B7%B4%E6%96%AF%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塔瓦雷·巴斯克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A_(%E4%B9%8C%E6%8B%89%E5%9C%AD)</t>
+  </si>
+  <si>
+    <t>国会 (乌拉圭)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>上议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>下议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>巴西帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>乌拉圭地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9B%BD%E5%92%8C%E5%9C%B0%E5%8C%BA%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>世界各国和地区面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
+  </si>
+  <si>
+    <t>各国国内生产总值列表 (购买力平价)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
+  </si>
+  <si>
+    <t>各国人均国内生产总值列表 (购买力平价)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
+  </si>
+  <si>
+    <t>各国国内生产总值列表 (国际汇率)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
+  </si>
+  <si>
+    <t>各国人均国内生产总值列表 (国际汇率)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>基尼系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>人类发展指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>人类发展指数列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>乌拉圭比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
+  </si>
+  <si>
+    <t>ISO 4217</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
+  </si>
+  <si>
+    <t>协调世界时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
+  </si>
+  <si>
+    <t>道路通行方向</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E9%A1%B6%E7%BA%A7%E5%9F%9F%E5%90%8D</t>
+  </si>
+  <si>
+    <t>国家和地区顶级域名</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/.uy</t>
+  </si>
+  <si>
+    <t>.uy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>拉普拉塔河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏里南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>葡萄牙帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B4%9B%E5%B0%BC%E4%BA%9E%C2%B7%E5%BE%B7%E7%88%BE%C2%B7%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>科洛尼亚·德尔·沙加缅度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>西班牙帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>民主指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>全球和平指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>贪污感知指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%94%BF%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>电子政务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>新闻自由指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E9%83%A8%E9%98%9F</t>
+  </si>
+  <si>
+    <t>联合国维持和平部队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>经济自由度指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%B6%E5%85%A5%E5%9D%87%E8%A1%A1%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国收入均衡列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%95%86%E7%9B%B4%E6%8E%A5%E6%8A%95%E8%B3%87</t>
+  </si>
+  <si>
+    <t>外商直接投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E6%AF%9B</t>
+  </si>
+  <si>
+    <t>羊毛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%BB</t>
+  </si>
+  <si>
+    <t>稻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
+  </si>
+  <si>
+    <t>大豆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%82%89</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E8%8A%BD</t>
+  </si>
+  <si>
+    <t>麦芽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%A5%B6</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>经济学人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%BB_(%E8%8D%AF%E7%94%A8)</t>
+  </si>
+  <si>
+    <t>大麻 (药用)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>乌拉圭同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E8%BF%9B%E6%AD%A5%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国社会进步指数列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>乌拉圭河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>瓜拉尼语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>乌拉圭历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%99%A9%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>探险家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%9E%E7%BD%97%E6%96%AF%E6%88%98%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>卡塞罗斯战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E8%B5%AB%E7%93%A6%E8%A5%BF%E5%A5%A5%C2%B7%E9%98%BF%E8%92%82%E5%8A%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>何塞·赫瓦西奥·阿蒂加斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%BA%86%E6%97%A5</t>
+  </si>
+  <si>
+    <t>国庆日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>左翼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%B3%9B%E9%98%B5%E7%BA%BF_(%E4%B9%8C%E6%8B%89%E5%9C%AD)</t>
+  </si>
+  <si>
+    <t>广泛阵线 (乌拉圭)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>全球金融危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E7%A9%86%E5%B8%8C%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>何塞·穆希卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>副热带湿润气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>安地斯山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%9A%96%E6%B5%81</t>
+  </si>
+  <si>
+    <t>巴西暖流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>乌拉圭行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%82%E5%8A%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>阿蒂加斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E6%B4%9B%E5%85%A7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>卡内洛内斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BD%97%E6%8B%89%E5%B0%94%E6%88%88%E7%9C%81</t>
+  </si>
+  <si>
+    <t>塞罗拉尔戈省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B4%9B%E5%B0%BC%E4%BA%9A%E7%9C%81</t>
+  </si>
+  <si>
+    <t>科洛尼亚省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%8B%89%E6%96%AF%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>杜拉斯诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E9%9B%B7%E6%96%AF%E7%9C%81</t>
+  </si>
+  <si>
+    <t>弗洛雷斯省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E7%9C%81</t>
+  </si>
+  <si>
+    <t>佛罗里达省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%A6%E8%80%B6%E5%93%88%E7%9C%81</t>
+  </si>
+  <si>
+    <t>拉瓦耶哈省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%A4%9A%E7%B4%8D%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>马尔多纳多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%A1%91%E6%9D%9C</t>
+  </si>
+  <si>
+    <t>派桑杜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A7%E5%85%A7%E6%A0%BC%E7%BE%85</t>
+  </si>
+  <si>
+    <t>里奥内格罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B6%AD%E6%8B%89</t>
+  </si>
+  <si>
+    <t>里维拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%81%B0</t>
+  </si>
+  <si>
+    <t>罗恰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E6%89%98</t>
+  </si>
+  <si>
+    <t>萨尔托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BD%95%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>圣何塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%87%8C%E4%BA%9A%E8%AF%BA%E7%9C%81</t>
+  </si>
+  <si>
+    <t>索里亚诺省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A4%B8%E4%BC%A6%E5%8D%9A</t>
+  </si>
+  <si>
+    <t>塔夸伦博</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E4%B8%89%E4%BA%BA%E7%9C%81</t>
+  </si>
+  <si>
+    <t>三十三人省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>乌拉圭经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
+  </si>
+  <si>
+    <t>无神论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Jorge_Majfud</t>
+  </si>
+  <si>
+    <t>Jorge Majfud</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%B4%80%E7%90%83%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>世纪球场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1924%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>1924年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1928%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>1928年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1930%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>1930年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>1950年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>1970年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>2010年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%A6%84%E7%90%83</t>
+  </si>
+  <si>
+    <t>橄榄球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
+  </si>
+  <si>
+    <t>Central Intelligence Agency</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/The_World_Factbook</t>
+  </si>
+  <si>
+    <t>The World Factbook</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/United_Nations</t>
+  </si>
+  <si>
+    <t>United Nations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
+  </si>
+  <si>
+    <t>世界概况</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>开放式目录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
+  </si>
+  <si>
+    <t>Template talk-America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>中美 (政治地理学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>多明尼加共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣克里斯多福与尼维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>千里达及托巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安圭拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>阿鲁巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>库拉索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>荷属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>英属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>百慕大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>福克兰群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
+  </si>
+  <si>
+    <t>瓜德罗普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>马提尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>法属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣巴泰勒米岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>蒙塞拉特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>南乔治亚和南桑威奇群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>特克斯和凯科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>南美洲国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>博茨瓦纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>尼日利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
+  </si>
+  <si>
+    <t>斯威士兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赞比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特内哥罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>伊斯兰合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>法语圈国际组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布吉纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>蒲隆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>几内亚比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>马其顿共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
+  </si>
+  <si>
+    <t>新不伦瑞克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
+  </si>
+  <si>
+    <t>魁北克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>比利时法语社群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>新喀里多尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
+  </si>
+  <si>
+    <t>安大略</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>布特罗斯·布特罗斯-加利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
+  </si>
+  <si>
+    <t>庄美楷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>法语国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>法语系运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>法国电视国际五台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>乌拉圭国旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>乌拉圭国徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>乌拉圭国歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BE%97%E7%BB%B4%E7%9A%84%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>蒙得维的亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>族群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
-  </si>
-  <si>
-    <t>单一制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>乌拉圭总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%93%A6%E9%9B%B7%C2%B7%E5%B7%B4%E6%96%AF%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塔瓦雷·巴斯克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A_(%E4%B9%8C%E6%8B%89%E5%9C%AD)</t>
-  </si>
-  <si>
-    <t>国会 (乌拉圭)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>上议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>下议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>巴西帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>乌拉圭地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9B%BD%E5%92%8C%E5%9C%B0%E5%8C%BA%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>世界各国和地区面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
-  </si>
-  <si>
-    <t>购买力平价</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
-  </si>
-  <si>
-    <t>各国国内生产总值列表 (国际汇率)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (国际汇率)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>基尼系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>人类发展指数列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>烏拉圭比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
-  </si>
-  <si>
-    <t>ISO 4217</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
-  </si>
-  <si>
-    <t>协调世界时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
-  </si>
-  <si>
-    <t>道路通行方向</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E9%A1%B6%E7%BA%A7%E5%9F%9F%E5%90%8D</t>
-  </si>
-  <si>
-    <t>国家和地区顶级域名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/.uy</t>
-  </si>
-  <si>
-    <t>.uy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>拉普拉塔河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>葡萄牙帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B4%9B%E5%B0%BC%E4%BA%9E%C2%B7%E5%BE%B7%E7%88%BE%C2%B7%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>科洛尼亞·德爾·沙加緬度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>西班牙帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>国家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
-  </si>
-  <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>民主指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>全球和平指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>贪污感知指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%94%BF%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>电子政务</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>新闻自由指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E9%83%A8%E9%98%9F</t>
-  </si>
-  <si>
-    <t>联合国维持和平部队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>经济自由度指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%B6%E5%85%A5%E5%9D%87%E8%A1%A1%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国收入均衡列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%95%86%E7%9B%B4%E6%8E%A5%E6%8A%95%E8%B3%87</t>
-  </si>
-  <si>
-    <t>外商直接投資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E6%AF%9B</t>
-  </si>
-  <si>
-    <t>羊毛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%BB</t>
-  </si>
-  <si>
-    <t>稻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
-  </si>
-  <si>
-    <t>大豆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%82%89</t>
-  </si>
-  <si>
-    <t>牛肉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E8%8A%BD</t>
-  </si>
-  <si>
-    <t>麦芽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%A5%B6</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>经济学人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%BB_(%E8%8D%AF%E7%94%A8)</t>
-  </si>
-  <si>
-    <t>大麻 (药用)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>烏拉圭同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E8%BF%9B%E6%AD%A5%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国社会进步指数列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>乌拉圭河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>瓜拉尼语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>乌拉圭历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%99%A9%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>探险家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%9E%E7%BD%97%E6%96%AF%E6%88%98%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>卡塞罗斯战役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E8%B5%AB%E7%93%A6%E8%A5%BF%E5%A5%A5%C2%B7%E9%98%BF%E8%92%82%E5%8A%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>何塞·赫瓦西奥·阿蒂加斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%BA%86%E6%97%A5</t>
-  </si>
-  <si>
-    <t>国庆日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
-  </si>
-  <si>
-    <t>左翼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%B3%9B%E9%98%B5%E7%BA%BF_(%E4%B9%8C%E6%8B%89%E5%9C%AD)</t>
-  </si>
-  <si>
-    <t>广泛阵线 (乌拉圭)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>全球金融危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>經濟學人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E7%A9%86%E5%B8%8C%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>何塞·穆希卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>烏拉圭地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>烏拉圭河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>副热带湿润气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>安地斯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%9A%96%E6%B5%81</t>
-  </si>
-  <si>
-    <t>巴西暖流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>乌拉圭行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%82%E5%8A%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>阿蒂加斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E6%B4%9B%E5%85%A7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>卡內洛內斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BD%97%E6%8B%89%E5%B0%94%E6%88%88%E7%9C%81</t>
-  </si>
-  <si>
-    <t>塞罗拉尔戈省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B4%9B%E5%B0%BC%E4%BA%9A%E7%9C%81</t>
-  </si>
-  <si>
-    <t>科洛尼亚省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%8B%89%E6%96%AF%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>杜拉斯諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E9%9B%B7%E6%96%AF%E7%9C%81</t>
-  </si>
-  <si>
-    <t>弗洛雷斯省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E7%9C%81</t>
-  </si>
-  <si>
-    <t>佛罗里达省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%A6%E8%80%B6%E5%93%88%E7%9C%81</t>
-  </si>
-  <si>
-    <t>拉瓦耶哈省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%A4%9A%E7%B4%8D%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>馬爾多納多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%A1%91%E6%9D%9C</t>
-  </si>
-  <si>
-    <t>派桑杜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A7%E5%85%A7%E6%A0%BC%E7%BE%85</t>
-  </si>
-  <si>
-    <t>里奧內格羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B6%AD%E6%8B%89</t>
-  </si>
-  <si>
-    <t>里維拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%81%B0</t>
-  </si>
-  <si>
-    <t>羅恰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E6%89%98</t>
-  </si>
-  <si>
-    <t>萨尔托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BD%95%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>圣何塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%87%8C%E4%BA%9A%E8%AF%BA%E7%9C%81</t>
-  </si>
-  <si>
-    <t>索里亚诺省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A4%B8%E4%BC%A6%E5%8D%9A</t>
-  </si>
-  <si>
-    <t>塔夸伦博</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E4%B8%89%E4%BA%BA%E7%9C%81</t>
-  </si>
-  <si>
-    <t>三十三人省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>烏拉圭經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
-  </si>
-  <si>
-    <t>無神論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Jorge_Majfud</t>
-  </si>
-  <si>
-    <t>Jorge Majfud</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%B4%80%E7%90%83%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>世紀球場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1924%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>1924年夏季奧林匹克運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1928%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>1928年夏季奧林匹克運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1930%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>1930年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>1950年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>1970年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>2010年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83</t>
-  </si>
-  <si>
-    <t>籃球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%A6%84%E7%90%83</t>
-  </si>
-  <si>
-    <t>橄榄球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
-  </si>
-  <si>
-    <t>Central Intelligence Agency</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/The_World_Factbook</t>
-  </si>
-  <si>
-    <t>The World Factbook</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/United_Nations</t>
-  </si>
-  <si>
-    <t>United Nations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
-  </si>
-  <si>
-    <t>世界概况</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
-  </si>
-  <si>
-    <t>开放式目录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>维基导游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
-  </si>
-  <si>
-    <t>Template talk-America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>中美 (政治地理学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>多明尼加共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖克里斯多福與尼維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>千里達及托巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安圭拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>庫拉索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>荷屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>英屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>開曼群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
-  </si>
-  <si>
-    <t>法屬圭亞那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>馬提尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>法屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖巴泰勒米島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>蒙塞拉特島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>南乔治亚和南桑威奇群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>南美洲国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
-  </si>
-  <si>
-    <t>汶萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多米尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>伊斯兰合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>法語圈國際組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布吉納法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蒲隆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
-  </si>
-  <si>
-    <t>新不倫瑞克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
-  </si>
-  <si>
-    <t>魁北克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>比利时法语社群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>新喀里多尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
-  </si>
-  <si>
-    <t>安大略</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>布特羅斯·布特羅斯-加利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
-  </si>
-  <si>
-    <t>庄美楷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>法语国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>法語系運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>法國電視國際五台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4822,7 +4804,7 @@
         <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4848,10 +4830,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4877,10 +4859,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4906,10 +4888,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4935,10 +4917,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4964,10 +4946,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4993,10 +4975,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5022,10 +5004,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5051,10 +5033,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5080,10 +5062,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5109,10 +5091,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5138,10 +5120,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5167,10 +5149,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5196,10 +5178,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5225,10 +5207,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5254,10 +5236,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5283,10 +5265,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5312,10 +5294,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5341,10 +5323,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5370,10 +5352,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5399,10 +5381,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5428,10 +5410,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5457,10 +5439,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5486,10 +5468,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5515,10 +5497,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5544,10 +5526,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5573,10 +5555,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5602,10 +5584,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5631,10 +5613,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5660,10 +5642,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -5689,10 +5671,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5718,10 +5700,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5747,10 +5729,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -5776,10 +5758,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5805,10 +5787,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5834,10 +5816,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -5863,10 +5845,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5892,10 +5874,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5921,10 +5903,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5950,10 +5932,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5979,10 +5961,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6008,10 +5990,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6037,10 +6019,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6066,10 +6048,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6095,10 +6077,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6124,10 +6106,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6153,10 +6135,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6182,10 +6164,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6211,10 +6193,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6240,10 +6222,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6269,10 +6251,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6298,10 +6280,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6327,10 +6309,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>6</v>
@@ -6356,10 +6338,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>21</v>
@@ -6385,10 +6367,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6414,10 +6396,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6443,10 +6425,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6472,10 +6454,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6501,10 +6483,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6530,10 +6512,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -6559,10 +6541,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6588,10 +6570,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6617,10 +6599,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6646,10 +6628,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6675,10 +6657,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6704,10 +6686,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6733,10 +6715,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6762,10 +6744,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6791,10 +6773,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6820,10 +6802,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6849,10 +6831,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6878,10 +6860,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6907,10 +6889,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6936,10 +6918,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6965,10 +6947,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6994,10 +6976,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -7023,10 +7005,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7052,10 +7034,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7081,10 +7063,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7110,10 +7092,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7139,10 +7121,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7168,10 +7150,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7197,10 +7179,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7226,10 +7208,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7255,10 +7237,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7284,10 +7266,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7313,10 +7295,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7342,10 +7324,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -7371,10 +7353,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7400,10 +7382,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7429,10 +7411,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7458,10 +7440,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7487,10 +7469,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7516,10 +7498,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7545,10 +7527,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7574,10 +7556,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7603,10 +7585,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7632,10 +7614,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7661,10 +7643,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7690,10 +7672,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7719,10 +7701,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7748,10 +7730,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7777,10 +7759,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7806,10 +7788,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7835,10 +7817,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7864,10 +7846,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7893,10 +7875,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7922,10 +7904,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7951,10 +7933,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7980,10 +7962,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8009,10 +7991,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8038,10 +8020,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8067,10 +8049,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8096,10 +8078,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8125,10 +8107,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8154,10 +8136,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="G194" t="n">
         <v>7</v>
@@ -8183,10 +8165,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8212,10 +8194,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8241,10 +8223,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G197" t="n">
         <v>5</v>
@@ -8270,10 +8252,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F198" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8299,10 +8281,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8328,10 +8310,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8357,10 +8339,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8386,10 +8368,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8415,10 +8397,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8444,10 +8426,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8473,10 +8455,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8502,10 +8484,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8531,10 +8513,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8560,10 +8542,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8589,10 +8571,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8618,10 +8600,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8647,10 +8629,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8676,10 +8658,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8705,10 +8687,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8734,10 +8716,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8763,10 +8745,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8792,10 +8774,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8821,10 +8803,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8850,10 +8832,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8879,10 +8861,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8908,10 +8890,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8937,10 +8919,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8966,10 +8948,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8995,10 +8977,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9024,10 +9006,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -9053,10 +9035,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9082,10 +9064,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9111,10 +9093,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9140,10 +9122,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9169,10 +9151,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9198,10 +9180,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9227,10 +9209,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9256,10 +9238,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9285,10 +9267,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9314,10 +9296,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9343,10 +9325,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F235" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9372,10 +9354,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G236" t="n">
         <v>6</v>
@@ -9401,10 +9383,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9430,10 +9412,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9459,10 +9441,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9488,10 +9470,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9517,10 +9499,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9546,10 +9528,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9575,10 +9557,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9604,10 +9586,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9633,10 +9615,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9662,10 +9644,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9691,10 +9673,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9720,10 +9702,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9749,10 +9731,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9778,10 +9760,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9807,10 +9789,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9836,10 +9818,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9865,10 +9847,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9894,10 +9876,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9923,10 +9905,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9952,10 +9934,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9981,10 +9963,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10010,10 +9992,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10039,10 +10021,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10068,10 +10050,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10097,10 +10079,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10126,10 +10108,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10155,10 +10137,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10184,10 +10166,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10213,10 +10195,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10242,10 +10224,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10271,10 +10253,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10300,10 +10282,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10329,10 +10311,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>326</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10358,10 +10340,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10387,10 +10369,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10416,10 +10398,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10445,10 +10427,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F273" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10474,10 +10456,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F274" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10503,10 +10485,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10532,10 +10514,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10561,10 +10543,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10590,10 +10572,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10619,10 +10601,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10648,10 +10630,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10677,10 +10659,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10706,10 +10688,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10735,10 +10717,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10764,10 +10746,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10793,10 +10775,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10822,10 +10804,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10851,10 +10833,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10880,10 +10862,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10909,10 +10891,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10938,10 +10920,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10967,10 +10949,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10996,10 +10978,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11025,10 +11007,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11054,10 +11036,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11083,10 +11065,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11112,10 +11094,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11141,10 +11123,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11170,10 +11152,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11199,10 +11181,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11228,10 +11210,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11257,10 +11239,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11286,10 +11268,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11315,10 +11297,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11344,10 +11326,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11373,10 +11355,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11402,10 +11384,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11431,10 +11413,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11460,10 +11442,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11489,10 +11471,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11518,10 +11500,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11547,10 +11529,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11576,10 +11558,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11605,10 +11587,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11634,10 +11616,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11663,10 +11645,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -11692,10 +11674,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11721,10 +11703,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11750,10 +11732,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11779,10 +11761,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11808,10 +11790,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11837,10 +11819,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11866,10 +11848,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>427</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11895,10 +11877,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F323" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11924,10 +11906,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F324" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11953,10 +11935,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F325" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11982,10 +11964,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12011,10 +11993,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12040,10 +12022,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12069,10 +12051,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12098,10 +12080,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12127,10 +12109,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12156,10 +12138,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12185,10 +12167,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12214,10 +12196,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12243,10 +12225,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12272,10 +12254,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F336" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12301,10 +12283,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12330,10 +12312,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12359,10 +12341,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12388,10 +12370,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12417,10 +12399,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12446,10 +12428,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12475,10 +12457,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F343" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12504,10 +12486,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12533,10 +12515,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F345" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12562,10 +12544,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12591,10 +12573,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12620,10 +12602,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12649,10 +12631,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12678,10 +12660,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12707,10 +12689,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12736,10 +12718,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F352" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12765,10 +12747,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12794,10 +12776,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12823,10 +12805,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12852,10 +12834,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12881,10 +12863,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12910,10 +12892,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12939,10 +12921,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12968,10 +12950,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12997,10 +12979,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13026,10 +13008,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13055,10 +13037,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13084,10 +13066,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G364" t="n">
         <v>5</v>
@@ -13113,10 +13095,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -13142,10 +13124,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13171,10 +13153,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13200,10 +13182,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13229,10 +13211,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13258,10 +13240,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13287,10 +13269,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13316,10 +13298,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13345,10 +13327,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13357,6 +13339,64 @@
         <v>4</v>
       </c>
       <c r="I373" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>373</v>
+      </c>
+      <c r="E374" t="s">
+        <v>716</v>
+      </c>
+      <c r="F374" t="s">
+        <v>717</v>
+      </c>
+      <c r="G374" t="n">
+        <v>12</v>
+      </c>
+      <c r="H374" t="s">
+        <v>4</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>374</v>
+      </c>
+      <c r="E375" t="s">
+        <v>716</v>
+      </c>
+      <c r="F375" t="s">
+        <v>718</v>
+      </c>
+      <c r="G375" t="n">
+        <v>1</v>
+      </c>
+      <c r="H375" t="s">
+        <v>4</v>
+      </c>
+      <c r="I375" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/乌拉圭_intext.xlsx
+++ b/xlsx/乌拉圭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>乌拉圭国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_乌拉圭</t>
+    <t>体育运动_体育运动_伊朗_乌拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%BE%BD</t>
